--- a/Semi Additive Formulae.xlsx
+++ b/Semi Additive Formulae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayPerepa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063ABE17-FAAC-48F7-8D02-892EF16283C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B11EF-E47B-4016-950B-9F5C3F3CD22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{26315A50-16E6-4445-BDD0-D7224BC6462B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="11">
   <si>
     <t>Customer</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6770CF-4AE7-4230-A785-7A9A19B4688A}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +453,7 @@
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -463,8 +466,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -477,8 +483,12 @@
       <c r="E3">
         <v>2718</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>E3</f>
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -491,8 +501,12 @@
       <c r="E4">
         <v>1281</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>E4+F3</f>
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -505,8 +519,12 @@
       <c r="E5">
         <v>1231</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" ref="F5:F41" si="0">E5+F4</f>
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -519,8 +537,12 @@
       <c r="E6">
         <v>2544</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7774</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -533,8 +555,12 @@
       <c r="E7">
         <v>1707</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -547,8 +573,12 @@
       <c r="E8">
         <v>1988</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>11469</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -561,8 +591,12 @@
       <c r="E9">
         <v>3534</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -575,8 +609,12 @@
       <c r="E10">
         <v>3655</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>18658</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -589,8 +627,12 @@
       <c r="E11">
         <v>1082</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>19740</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -603,8 +645,12 @@
       <c r="E12">
         <v>1703</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>21443</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -617,8 +663,12 @@
       <c r="E13">
         <v>3312</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>24755</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -631,8 +681,12 @@
       <c r="E14">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>25268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -645,8 +699,12 @@
       <c r="E15">
         <v>238</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>25506</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -659,8 +717,12 @@
       <c r="E16">
         <v>1151</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>26657</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -673,8 +735,12 @@
       <c r="E17">
         <v>3175</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>29832</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -687,8 +753,12 @@
       <c r="E18">
         <v>4576</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>34408</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -701,8 +771,12 @@
       <c r="E19">
         <v>603</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>35011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -715,8 +789,12 @@
       <c r="E20">
         <v>2651</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>37662</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -729,8 +807,12 @@
       <c r="E21">
         <v>3807</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>41469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -743,8 +825,12 @@
       <c r="E22">
         <v>4595</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -757,8 +843,12 @@
       <c r="E23">
         <v>3907</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>49971</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -771,8 +861,12 @@
       <c r="E24">
         <v>4073</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>54044</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -785,8 +879,12 @@
       <c r="E25">
         <v>948</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>54992</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -799,8 +897,12 @@
       <c r="E26">
         <v>4524</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>59516</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -813,8 +915,12 @@
       <c r="E27">
         <v>3103</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>62619</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -827,8 +933,12 @@
       <c r="E28">
         <v>2711</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>65330</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -841,8 +951,12 @@
       <c r="E29">
         <v>2448</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>67778</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -855,8 +969,12 @@
       <c r="E30">
         <v>4984</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>72762</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -869,8 +987,12 @@
       <c r="E31">
         <v>1192</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>73954</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -883,8 +1005,12 @@
       <c r="E32">
         <v>4031</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>77985</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -897,8 +1023,12 @@
       <c r="E33">
         <v>1502</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>79487</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -911,8 +1041,12 @@
       <c r="E34">
         <v>3047</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>82534</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>8</v>
       </c>
@@ -925,8 +1059,12 @@
       <c r="E35">
         <v>4774</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>87308</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -939,8 +1077,12 @@
       <c r="E36">
         <v>2138</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>89446</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -953,8 +1095,12 @@
       <c r="E37">
         <v>2460</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>91906</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>8</v>
       </c>
@@ -967,8 +1113,12 @@
       <c r="E38">
         <v>847</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>92753</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -981,8 +1131,12 @@
       <c r="E39">
         <v>2606</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>95359</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1149,12 @@
       <c r="E40">
         <v>536</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>95895</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -1008,6 +1166,10 @@
       </c>
       <c r="E41">
         <v>403</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>96298</v>
       </c>
     </row>
   </sheetData>
